--- a/citycases.xlsx
+++ b/citycases.xlsx
@@ -2205,7 +2205,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -2293,7 +2293,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -2491,7 +2491,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
@@ -2656,7 +2656,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
@@ -2689,7 +2689,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>48</v>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>49</v>
@@ -2733,7 +2733,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>50</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>51</v>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>52</v>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>53</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>54</v>
@@ -2788,7 +2788,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>55</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>56</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>57</v>
@@ -2821,7 +2821,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>58</v>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>59</v>
@@ -2843,7 +2843,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>61</v>
@@ -2865,7 +2865,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>62</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>63</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>64</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>65</v>
@@ -2909,7 +2909,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>66</v>
@@ -2920,7 +2920,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>67</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>68</v>
@@ -2942,7 +2942,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>69</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>70</v>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>71</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>72</v>
@@ -2986,7 +2986,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>73</v>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>74</v>
@@ -3008,7 +3008,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>75</v>
@@ -3019,7 +3019,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>76</v>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>77</v>
@@ -3041,7 +3041,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>78</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>79</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>80</v>
@@ -3074,7 +3074,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>81</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>82</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>83</v>
@@ -3107,7 +3107,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>84</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>85</v>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>86</v>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>87</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>88</v>
@@ -3162,7 +3162,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>89</v>
@@ -3173,7 +3173,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>90</v>
@@ -3184,7 +3184,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>91</v>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>92</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>93</v>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>94</v>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>95</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
         <v>96</v>
@@ -3250,7 +3250,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>97</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
         <v>98</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
         <v>99</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
         <v>100</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
         <v>101</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
         <v>102</v>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>103</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
         <v>104</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
         <v>105</v>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
         <v>106</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
         <v>107</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
         <v>108</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
         <v>109</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="B110" t="s">
         <v>110</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="B111" t="s">
         <v>111</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="B112" t="s">
         <v>112</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
         <v>113</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
         <v>114</v>
@@ -3448,7 +3448,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
         <v>115</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
         <v>116</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
         <v>117</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="B118" t="s">
         <v>118</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
         <v>119</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="B120" t="s">
         <v>120</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="B121" t="s">
         <v>121</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="B122" t="s">
         <v>122</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
         <v>123</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
         <v>124</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="B125" t="s">
         <v>125</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="B126" t="s">
         <v>126</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
         <v>127</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="B128" t="s">
         <v>128</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
         <v>129</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="B130" t="s">
         <v>130</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B131" t="s">
         <v>131</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="B132" t="s">
         <v>132</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="B133" t="s">
         <v>133</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="B134" t="s">
         <v>134</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="B135" t="s">
         <v>135</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="B136" t="s">
         <v>136</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="B137" t="s">
         <v>137</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="B138" t="s">
         <v>138</v>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="B139" t="s">
         <v>139</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="B140" t="s">
         <v>140</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="B141" t="s">
         <v>141</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
         <v>142</v>
@@ -3756,7 +3756,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="B143" t="s">
         <v>143</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="B144" t="s">
         <v>144</v>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="B145" t="s">
         <v>145</v>
@@ -3789,7 +3789,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="B146" t="s">
         <v>146</v>
@@ -3800,7 +3800,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="B147" t="s">
         <v>147</v>
@@ -3811,7 +3811,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="B148" t="s">
         <v>148</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B149" t="s">
         <v>149</v>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="B150" t="s">
         <v>150</v>
@@ -3844,7 +3844,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="B151" t="s">
         <v>151</v>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="B152" t="s">
         <v>152</v>
@@ -3866,7 +3866,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="B153" t="s">
         <v>153</v>
@@ -3877,7 +3877,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="B154" t="s">
         <v>154</v>
@@ -3888,7 +3888,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="B155" t="s">
         <v>155</v>
@@ -3899,7 +3899,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="B156" t="s">
         <v>156</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="B157" t="s">
         <v>157</v>
@@ -3921,7 +3921,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="B158" t="s">
         <v>158</v>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="B159" t="s">
         <v>159</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="B160" t="s">
         <v>160</v>
@@ -3954,7 +3954,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="B161" t="s">
         <v>161</v>
@@ -3965,7 +3965,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="B162" t="s">
         <v>162</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="B163" t="s">
         <v>163</v>
@@ -3987,7 +3987,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="B164" t="s">
         <v>164</v>
@@ -3998,7 +3998,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="B165" t="s">
         <v>165</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="B166" t="s">
         <v>166</v>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="B167" t="s">
         <v>167</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="B168" t="s">
         <v>168</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="B169" t="s">
         <v>169</v>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="B170" t="s">
         <v>170</v>
@@ -4064,7 +4064,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="B171" t="s">
         <v>171</v>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="B172" t="s">
         <v>172</v>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="B173" t="s">
         <v>173</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="B174" t="s">
         <v>174</v>
@@ -4108,7 +4108,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="B175" t="s">
         <v>175</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="B176" t="s">
         <v>176</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="B177" t="s">
         <v>177</v>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="B178" t="s">
         <v>178</v>
@@ -4152,7 +4152,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="B179" t="s">
         <v>179</v>
@@ -4163,7 +4163,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="B180" t="s">
         <v>180</v>
@@ -4174,7 +4174,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="B181" t="s">
         <v>181</v>
@@ -4185,7 +4185,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="B182" t="s">
         <v>182</v>
@@ -4196,7 +4196,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="B183" t="s">
         <v>183</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="B184" t="s">
         <v>184</v>
@@ -4218,7 +4218,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="B185" t="s">
         <v>185</v>
@@ -4229,7 +4229,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="B186" t="s">
         <v>186</v>
@@ -4240,7 +4240,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="B187" t="s">
         <v>187</v>
@@ -4251,7 +4251,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="B188" t="s">
         <v>188</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="B189" t="s">
         <v>189</v>
@@ -4273,7 +4273,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="B190" t="s">
         <v>190</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="B191" t="s">
         <v>191</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="B192" t="s">
         <v>192</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="B193" t="s">
         <v>193</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="B194" t="s">
         <v>194</v>
@@ -4328,7 +4328,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="B195" t="s">
         <v>195</v>
@@ -4339,7 +4339,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="B196" t="s">
         <v>196</v>
@@ -4350,7 +4350,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="B197" t="s">
         <v>197</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="B198" t="s">
         <v>198</v>
@@ -4372,7 +4372,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="B199" t="s">
         <v>199</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="B200" t="s">
         <v>200</v>
@@ -4394,7 +4394,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="B201" t="s">
         <v>201</v>
@@ -4405,7 +4405,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="B202" t="s">
         <v>202</v>
@@ -4416,7 +4416,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="1">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="B203" t="s">
         <v>203</v>
@@ -4427,7 +4427,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="1">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="B204" t="s">
         <v>204</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="1">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="B205" t="s">
         <v>205</v>
@@ -4449,7 +4449,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="1">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="B206" t="s">
         <v>206</v>
@@ -4460,7 +4460,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="B207" t="s">
         <v>207</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="B208" t="s">
         <v>208</v>
@@ -4482,7 +4482,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="B209" t="s">
         <v>209</v>
@@ -4493,7 +4493,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="B210" t="s">
         <v>210</v>
@@ -4504,7 +4504,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="B211" t="s">
         <v>211</v>
@@ -4515,7 +4515,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="B212" t="s">
         <v>212</v>
@@ -4526,7 +4526,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="B213" t="s">
         <v>213</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="B214" t="s">
         <v>214</v>
@@ -4548,7 +4548,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="B215" t="s">
         <v>215</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="B216" t="s">
         <v>216</v>
@@ -4570,7 +4570,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="B217" t="s">
         <v>217</v>
@@ -4581,7 +4581,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="B218" t="s">
         <v>218</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="B219" t="s">
         <v>219</v>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="B220" t="s">
         <v>220</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="B221" t="s">
         <v>221</v>
@@ -4625,7 +4625,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="B222" t="s">
         <v>222</v>
@@ -4636,7 +4636,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="B223" t="s">
         <v>223</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="B224" t="s">
         <v>224</v>
@@ -4658,7 +4658,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="B225" t="s">
         <v>225</v>
@@ -4669,7 +4669,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="B226" t="s">
         <v>226</v>
@@ -4680,7 +4680,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="B227" t="s">
         <v>227</v>
@@ -4691,7 +4691,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="B228" t="s">
         <v>228</v>
@@ -4702,7 +4702,7 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="B229" t="s">
         <v>229</v>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="B230" t="s">
         <v>230</v>
@@ -4724,7 +4724,7 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="B231" t="s">
         <v>231</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="B232" t="s">
         <v>232</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="B233" t="s">
         <v>233</v>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="B234" t="s">
         <v>234</v>
@@ -4768,7 +4768,7 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="B235" t="s">
         <v>235</v>
@@ -4779,7 +4779,7 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="B236" t="s">
         <v>236</v>
@@ -4790,7 +4790,7 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="B237" t="s">
         <v>237</v>
@@ -4801,7 +4801,7 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="B238" t="s">
         <v>238</v>
@@ -4812,7 +4812,7 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="B239" t="s">
         <v>239</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="B240" t="s">
         <v>240</v>
@@ -4834,7 +4834,7 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="B241" t="s">
         <v>241</v>
@@ -4845,7 +4845,7 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="B242" t="s">
         <v>242</v>
@@ -4856,7 +4856,7 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="B243" t="s">
         <v>243</v>
@@ -4867,7 +4867,7 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="B244" t="s">
         <v>244</v>
@@ -4878,7 +4878,7 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="B245" t="s">
         <v>245</v>
@@ -4889,7 +4889,7 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="B246" t="s">
         <v>246</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="B247" t="s">
         <v>247</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="B248" t="s">
         <v>248</v>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="B249" t="s">
         <v>249</v>
@@ -4933,7 +4933,7 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="B250" t="s">
         <v>250</v>
@@ -4944,7 +4944,7 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="B251" t="s">
         <v>251</v>
@@ -4955,7 +4955,7 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="B252" t="s">
         <v>252</v>
@@ -4966,7 +4966,7 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="1">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="B253" t="s">
         <v>253</v>
@@ -4977,7 +4977,7 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="1">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="B254" t="s">
         <v>254</v>
@@ -4988,7 +4988,7 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="1">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="B255" t="s">
         <v>255</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="B256" t="s">
         <v>256</v>
@@ -5010,7 +5010,7 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="B257" t="s">
         <v>257</v>
@@ -5021,7 +5021,7 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="B258" t="s">
         <v>258</v>
@@ -5032,7 +5032,7 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="B259" t="s">
         <v>259</v>
@@ -5043,7 +5043,7 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="B260" t="s">
         <v>260</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="B261" t="s">
         <v>261</v>
@@ -5065,7 +5065,7 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="B262" t="s">
         <v>262</v>
@@ -5076,7 +5076,7 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="B263" t="s">
         <v>263</v>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="B264" t="s">
         <v>264</v>
@@ -5098,7 +5098,7 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="B265" t="s">
         <v>265</v>
@@ -5109,7 +5109,7 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="B266" t="s">
         <v>266</v>
@@ -5120,7 +5120,7 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="B267" t="s">
         <v>267</v>
@@ -5131,7 +5131,7 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="B268" t="s">
         <v>268</v>
@@ -5142,7 +5142,7 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="1">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="B269" t="s">
         <v>269</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="1">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="B270" t="s">
         <v>270</v>
@@ -5164,7 +5164,7 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="B271" t="s">
         <v>271</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="B272" t="s">
         <v>272</v>
@@ -5186,7 +5186,7 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="B273" t="s">
         <v>273</v>
@@ -5197,7 +5197,7 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="B274" t="s">
         <v>274</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="1">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="B275" t="s">
         <v>275</v>
@@ -5219,7 +5219,7 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="1">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="B276" t="s">
         <v>276</v>
@@ -5230,7 +5230,7 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="1">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="B277" t="s">
         <v>277</v>
@@ -5241,7 +5241,7 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="1">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="B278" t="s">
         <v>278</v>
@@ -5252,7 +5252,7 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="1">
-        <v>314</v>
+        <v>277</v>
       </c>
       <c r="B279" t="s">
         <v>279</v>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="B280" t="s">
         <v>280</v>
@@ -5274,7 +5274,7 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="B281" t="s">
         <v>281</v>
@@ -5285,7 +5285,7 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="B282" t="s">
         <v>282</v>
@@ -5296,7 +5296,7 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="B283" t="s">
         <v>283</v>
@@ -5307,7 +5307,7 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="1">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="B284" t="s">
         <v>284</v>
@@ -5318,7 +5318,7 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="B285" t="s">
         <v>285</v>
@@ -5329,7 +5329,7 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="B286" t="s">
         <v>286</v>
@@ -5340,7 +5340,7 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="B287" t="s">
         <v>287</v>
@@ -5351,7 +5351,7 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="B288" t="s">
         <v>288</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="B289" t="s">
         <v>289</v>
@@ -5373,7 +5373,7 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="B290" t="s">
         <v>290</v>
@@ -5384,7 +5384,7 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="B291" t="s">
         <v>291</v>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="B292" t="s">
         <v>292</v>
@@ -5406,7 +5406,7 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="B293" t="s">
         <v>293</v>
@@ -5417,7 +5417,7 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="B294" t="s">
         <v>294</v>
@@ -5428,7 +5428,7 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="B295" t="s">
         <v>295</v>
@@ -5439,7 +5439,7 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="B296" t="s">
         <v>296</v>
@@ -5450,7 +5450,7 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="B297" t="s">
         <v>297</v>
@@ -5461,7 +5461,7 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="B298" t="s">
         <v>298</v>
@@ -5472,7 +5472,7 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="1">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="B299" t="s">
         <v>299</v>
@@ -5483,7 +5483,7 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="1">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="B300" t="s">
         <v>300</v>
@@ -5494,7 +5494,7 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="1">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="B301" t="s">
         <v>301</v>
@@ -5505,7 +5505,7 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="1">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="B302" t="s">
         <v>302</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="1">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="B303" t="s">
         <v>303</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="B304" t="s">
         <v>304</v>
@@ -5538,7 +5538,7 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="B305" t="s">
         <v>305</v>
@@ -5549,7 +5549,7 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="B306" t="s">
         <v>306</v>
@@ -5560,7 +5560,7 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1">
-        <v>342</v>
+        <v>305</v>
       </c>
       <c r="B307" t="s">
         <v>307</v>
@@ -5571,7 +5571,7 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="B308" t="s">
         <v>308</v>
@@ -5582,7 +5582,7 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="1">
-        <v>344</v>
+        <v>307</v>
       </c>
       <c r="B309" t="s">
         <v>309</v>
@@ -5593,7 +5593,7 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="1">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="B310" t="s">
         <v>310</v>
@@ -5604,7 +5604,7 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="B311" t="s">
         <v>311</v>
@@ -5615,7 +5615,7 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="B312" t="s">
         <v>312</v>
@@ -5626,7 +5626,7 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="B313" t="s">
         <v>313</v>
@@ -5637,7 +5637,7 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="1">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="B314" t="s">
         <v>314</v>
@@ -5648,7 +5648,7 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="B315" t="s">
         <v>315</v>
@@ -5659,7 +5659,7 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="B316" t="s">
         <v>316</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1">
-        <v>352</v>
+        <v>315</v>
       </c>
       <c r="B317" t="s">
         <v>317</v>
@@ -5681,7 +5681,7 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="B318" t="s">
         <v>318</v>
@@ -5692,7 +5692,7 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="B319" t="s">
         <v>319</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="B320" t="s">
         <v>320</v>
@@ -5714,7 +5714,7 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="B321" t="s">
         <v>321</v>
@@ -5725,7 +5725,7 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="B322" t="s">
         <v>322</v>
@@ -5736,7 +5736,7 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="1">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="B323" t="s">
         <v>323</v>
@@ -5747,7 +5747,7 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="1">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="B324" t="s">
         <v>324</v>
@@ -5758,7 +5758,7 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="1">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="B325" t="s">
         <v>325</v>
@@ -5769,7 +5769,7 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="1">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="B326" t="s">
         <v>326</v>
@@ -5780,7 +5780,7 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="1">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="B327" t="s">
         <v>327</v>
@@ -5791,7 +5791,7 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="B328" t="s">
         <v>328</v>
@@ -5802,7 +5802,7 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="B329" t="s">
         <v>329</v>
@@ -5813,7 +5813,7 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="B330" t="s">
         <v>330</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="B331" t="s">
         <v>331</v>
@@ -5835,7 +5835,7 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="B332" t="s">
         <v>332</v>
@@ -5846,7 +5846,7 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="B333" t="s">
         <v>333</v>
@@ -5857,7 +5857,7 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="B334" t="s">
         <v>334</v>
@@ -5868,7 +5868,7 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="B335" t="s">
         <v>335</v>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="B336" t="s">
         <v>336</v>
@@ -5890,7 +5890,7 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="B337" t="s">
         <v>337</v>
@@ -5901,7 +5901,7 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="B338" t="s">
         <v>338</v>
@@ -5912,7 +5912,7 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="B339" t="s">
         <v>339</v>
@@ -5923,7 +5923,7 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="B340" t="s">
         <v>340</v>
@@ -5934,7 +5934,7 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="B341" t="s">
         <v>341</v>

--- a/citycases.xlsx
+++ b/citycases.xlsx
@@ -1045,793 +1045,793 @@
     <t>142</t>
   </si>
   <si>
-    <t>1115</t>
-  </si>
-  <si>
-    <t>434</t>
-  </si>
-  <si>
-    <t>293</t>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>436</t>
+  </si>
+  <si>
+    <t>294</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>1363</t>
-  </si>
-  <si>
-    <t>2547</t>
-  </si>
-  <si>
-    <t>1411</t>
-  </si>
-  <si>
-    <t>1720</t>
-  </si>
-  <si>
-    <t>2131</t>
-  </si>
-  <si>
-    <t>606</t>
+    <t>1380</t>
+  </si>
+  <si>
+    <t>2566</t>
+  </si>
+  <si>
+    <t>1419</t>
+  </si>
+  <si>
+    <t>1727</t>
+  </si>
+  <si>
+    <t>2149</t>
+  </si>
+  <si>
+    <t>609</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>1282</t>
+    <t>1294</t>
   </si>
   <si>
     <t>229</t>
   </si>
   <si>
-    <t>1648</t>
+    <t>1656</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>3614</t>
+  </si>
+  <si>
+    <t>1224</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>488</t>
+  </si>
+  <si>
+    <t>3651</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>3964</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>3038</t>
+  </si>
+  <si>
+    <t>1131</t>
+  </si>
+  <si>
+    <t>483</t>
+  </si>
+  <si>
+    <t>1771</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2578</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2585</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>770</t>
+  </si>
+  <si>
+    <t>1365</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>1130</t>
+  </si>
+  <si>
+    <t>2844</t>
+  </si>
+  <si>
+    <t>576</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>2921</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>1285</t>
+  </si>
+  <si>
+    <t>674</t>
+  </si>
+  <si>
+    <t>2037</t>
+  </si>
+  <si>
+    <t>865</t>
+  </si>
+  <si>
+    <t>2949</t>
+  </si>
+  <si>
+    <t>3560</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>2185</t>
+  </si>
+  <si>
+    <t>2178</t>
+  </si>
+  <si>
+    <t>4870</t>
+  </si>
+  <si>
+    <t>266</t>
   </si>
   <si>
     <t>510</t>
   </si>
   <si>
-    <t>332</t>
-  </si>
-  <si>
-    <t>3600</t>
-  </si>
-  <si>
-    <t>1217</t>
-  </si>
-  <si>
-    <t>997</t>
-  </si>
-  <si>
-    <t>367</t>
-  </si>
-  <si>
-    <t>488</t>
-  </si>
-  <si>
-    <t>3632</t>
-  </si>
-  <si>
-    <t>456</t>
-  </si>
-  <si>
-    <t>3943</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>1093</t>
-  </si>
-  <si>
-    <t>3004</t>
-  </si>
-  <si>
-    <t>1129</t>
-  </si>
-  <si>
-    <t>482</t>
-  </si>
-  <si>
-    <t>1762</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2554</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>2575</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>768</t>
-  </si>
-  <si>
-    <t>1360</t>
-  </si>
-  <si>
-    <t>406</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>743</t>
+  </si>
+  <si>
+    <t>463</t>
+  </si>
+  <si>
+    <t>787</t>
+  </si>
+  <si>
+    <t>568</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>2904</t>
+  </si>
+  <si>
+    <t>492</t>
+  </si>
+  <si>
+    <t>764</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>727</t>
+  </si>
+  <si>
+    <t>3989</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>1271</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>2551</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>1272</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>556</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>3980</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>1948</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>1373</t>
+  </si>
+  <si>
+    <t>593</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>677</t>
+  </si>
+  <si>
+    <t>592</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>498</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>1196</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>2085</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>1038</t>
+  </si>
+  <si>
+    <t>876</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>445</t>
+  </si>
+  <si>
+    <t>897</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>1455</t>
+  </si>
+  <si>
+    <t>991</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>1041</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>726</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>1045</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>870</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>968</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>1718</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>655</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>1604</t>
+  </si>
+  <si>
+    <t>3225</t>
+  </si>
+  <si>
+    <t>1229</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>3007</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>497</t>
+  </si>
+  <si>
+    <t>2516</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>1652</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>1926</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>1818</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>916</t>
+  </si>
+  <si>
+    <t>575</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>1853</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>1374</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>2891</t>
   </si>
   <si>
     <t>1117</t>
   </si>
   <si>
-    <t>2816</t>
-  </si>
-  <si>
-    <t>574</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>2904</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>309</t>
-  </si>
-  <si>
-    <t>1270</t>
-  </si>
-  <si>
-    <t>664</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>858</t>
-  </si>
-  <si>
-    <t>2937</t>
-  </si>
-  <si>
-    <t>3529</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>2178</t>
-  </si>
-  <si>
-    <t>2149</t>
-  </si>
-  <si>
-    <t>4849</t>
-  </si>
-  <si>
-    <t>265</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>737</t>
-  </si>
-  <si>
-    <t>461</t>
-  </si>
-  <si>
-    <t>779</t>
-  </si>
-  <si>
-    <t>563</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>2881</t>
-  </si>
-  <si>
-    <t>485</t>
-  </si>
-  <si>
-    <t>758</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>719</t>
-  </si>
-  <si>
-    <t>3978</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>478</t>
-  </si>
-  <si>
-    <t>1262</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>2536</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>1974</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>1246</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>553</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>3958</t>
-  </si>
-  <si>
-    <t>252</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>1631</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>1929</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>1365</t>
-  </si>
-  <si>
-    <t>591</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>267</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>316</t>
-  </si>
-  <si>
-    <t>667</t>
-  </si>
-  <si>
-    <t>586</t>
-  </si>
-  <si>
-    <t>549</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>1097</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>496</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>1185</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>294</t>
-  </si>
-  <si>
-    <t>2077</t>
-  </si>
-  <si>
-    <t>602</t>
+    <t>146</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>798</t>
+  </si>
+  <si>
+    <t>543</t>
+  </si>
+  <si>
+    <t>455</t>
+  </si>
+  <si>
+    <t>2545</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>665</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>1728</t>
+  </si>
+  <si>
+    <t>2742</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>1753</t>
+  </si>
+  <si>
+    <t>806</t>
+  </si>
+  <si>
+    <t>466</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>2078</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>2223</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>2187</t>
+  </si>
+  <si>
+    <t>1596</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>1098</t>
+  </si>
+  <si>
+    <t>775</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>611</t>
+  </si>
+  <si>
+    <t>1384</t>
   </si>
   <si>
     <t>211</t>
   </si>
   <si>
-    <t>1031</t>
-  </si>
-  <si>
-    <t>871</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>445</t>
-  </si>
-  <si>
-    <t>888</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>519</t>
-  </si>
-  <si>
-    <t>1450</t>
-  </si>
-  <si>
-    <t>982</t>
-  </si>
-  <si>
-    <t>388</t>
-  </si>
-  <si>
-    <t>1037</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>721</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>1038</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>864</t>
-  </si>
-  <si>
-    <t>960</t>
+    <t>256</t>
   </si>
   <si>
     <t>441</t>
   </si>
   <si>
+    <t>572</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>1897</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>5647</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>599</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>3122</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>928</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>638</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>1545</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>688</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>639</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>879</t>
+  </si>
+  <si>
     <t>58</t>
   </si>
   <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>284</t>
-  </si>
-  <si>
-    <t>1700</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>651</t>
-  </si>
-  <si>
-    <t>497</t>
-  </si>
-  <si>
-    <t>1594</t>
-  </si>
-  <si>
-    <t>3185</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>2985</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>1647</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>317</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>1915</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>913</t>
-  </si>
-  <si>
-    <t>569</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>1844</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>1358</t>
-  </si>
-  <si>
-    <t>396</t>
-  </si>
-  <si>
-    <t>2878</t>
-  </si>
-  <si>
-    <t>542</t>
-  </si>
-  <si>
-    <t>1108</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>752</t>
-  </si>
-  <si>
-    <t>541</t>
-  </si>
-  <si>
-    <t>453</t>
-  </si>
-  <si>
-    <t>2528</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>659</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>1717</t>
-  </si>
-  <si>
-    <t>2721</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>1741</t>
-  </si>
-  <si>
-    <t>796</t>
-  </si>
-  <si>
-    <t>464</t>
-  </si>
-  <si>
-    <t>458</t>
-  </si>
-  <si>
-    <t>2067</t>
-  </si>
-  <si>
-    <t>364</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>2181</t>
-  </si>
-  <si>
-    <t>1585</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>1094</t>
-  </si>
-  <si>
-    <t>773</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>1378</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>435</t>
-  </si>
-  <si>
-    <t>566</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>1893</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>381</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>5617</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>598</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>3113</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>916</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>636</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>587</t>
-  </si>
-  <si>
-    <t>637</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>1534</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>686</t>
-  </si>
-  <si>
-    <t>631</t>
-  </si>
-  <si>
-    <t>375</t>
-  </si>
-  <si>
-    <t>342</t>
-  </si>
-  <si>
-    <t>876</t>
-  </si>
-  <si>
-    <t>1314</t>
+    <t>1327</t>
   </si>
 </sst>
 </file>
@@ -2882,7 +2882,7 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2893,7 +2893,7 @@
         <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2904,7 +2904,7 @@
         <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2915,7 +2915,7 @@
         <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2926,7 +2926,7 @@
         <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2937,7 +2937,7 @@
         <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2948,7 +2948,7 @@
         <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2959,7 +2959,7 @@
         <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2970,7 +2970,7 @@
         <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2981,7 +2981,7 @@
         <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2992,7 +2992,7 @@
         <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3003,7 +3003,7 @@
         <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3014,7 +3014,7 @@
         <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3025,7 +3025,7 @@
         <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3036,7 +3036,7 @@
         <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3047,7 +3047,7 @@
         <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3058,7 +3058,7 @@
         <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3069,7 +3069,7 @@
         <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3080,7 +3080,7 @@
         <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3091,7 +3091,7 @@
         <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3102,7 +3102,7 @@
         <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3124,7 +3124,7 @@
         <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3135,7 +3135,7 @@
         <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3146,7 +3146,7 @@
         <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3157,7 +3157,7 @@
         <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3168,7 +3168,7 @@
         <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3179,7 +3179,7 @@
         <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3190,7 +3190,7 @@
         <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3201,7 +3201,7 @@
         <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3212,7 +3212,7 @@
         <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3223,7 +3223,7 @@
         <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3300,7 +3300,7 @@
         <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>438</v>
+        <v>356</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3311,7 +3311,7 @@
         <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3322,7 +3322,7 @@
         <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3333,7 +3333,7 @@
         <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3344,7 +3344,7 @@
         <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3355,7 +3355,7 @@
         <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3366,7 +3366,7 @@
         <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3377,7 +3377,7 @@
         <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3388,7 +3388,7 @@
         <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3399,7 +3399,7 @@
         <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3410,7 +3410,7 @@
         <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3421,7 +3421,7 @@
         <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3432,7 +3432,7 @@
         <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3443,7 +3443,7 @@
         <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3454,7 +3454,7 @@
         <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3465,7 +3465,7 @@
         <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3476,7 +3476,7 @@
         <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3487,7 +3487,7 @@
         <v>118</v>
       </c>
       <c r="C118" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3498,7 +3498,7 @@
         <v>119</v>
       </c>
       <c r="C119" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3509,7 +3509,7 @@
         <v>120</v>
       </c>
       <c r="C120" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3520,7 +3520,7 @@
         <v>121</v>
       </c>
       <c r="C121" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3531,7 +3531,7 @@
         <v>122</v>
       </c>
       <c r="C122" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3542,7 +3542,7 @@
         <v>123</v>
       </c>
       <c r="C123" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3553,7 +3553,7 @@
         <v>124</v>
       </c>
       <c r="C124" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3564,7 +3564,7 @@
         <v>125</v>
       </c>
       <c r="C125" t="s">
-        <v>462</v>
+        <v>345</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3575,7 +3575,7 @@
         <v>126</v>
       </c>
       <c r="C126" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3586,7 +3586,7 @@
         <v>127</v>
       </c>
       <c r="C127" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3597,7 +3597,7 @@
         <v>128</v>
       </c>
       <c r="C128" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3608,7 +3608,7 @@
         <v>129</v>
       </c>
       <c r="C129" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3619,7 +3619,7 @@
         <v>130</v>
       </c>
       <c r="C130" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3630,7 +3630,7 @@
         <v>131</v>
       </c>
       <c r="C131" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3641,7 +3641,7 @@
         <v>132</v>
       </c>
       <c r="C132" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3652,7 +3652,7 @@
         <v>133</v>
       </c>
       <c r="C133" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3663,7 +3663,7 @@
         <v>134</v>
       </c>
       <c r="C134" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3674,7 +3674,7 @@
         <v>135</v>
       </c>
       <c r="C135" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3685,7 +3685,7 @@
         <v>136</v>
       </c>
       <c r="C136" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3696,7 +3696,7 @@
         <v>137</v>
       </c>
       <c r="C137" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3707,7 +3707,7 @@
         <v>138</v>
       </c>
       <c r="C138" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3718,7 +3718,7 @@
         <v>139</v>
       </c>
       <c r="C139" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3729,7 +3729,7 @@
         <v>140</v>
       </c>
       <c r="C140" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3740,7 +3740,7 @@
         <v>141</v>
       </c>
       <c r="C141" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3751,7 +3751,7 @@
         <v>142</v>
       </c>
       <c r="C142" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3762,7 +3762,7 @@
         <v>143</v>
       </c>
       <c r="C143" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3773,7 +3773,7 @@
         <v>144</v>
       </c>
       <c r="C144" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3784,7 +3784,7 @@
         <v>145</v>
       </c>
       <c r="C145" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3795,7 +3795,7 @@
         <v>146</v>
       </c>
       <c r="C146" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3806,7 +3806,7 @@
         <v>147</v>
       </c>
       <c r="C147" t="s">
-        <v>447</v>
+        <v>478</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3817,7 +3817,7 @@
         <v>148</v>
       </c>
       <c r="C148" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3828,7 +3828,7 @@
         <v>149</v>
       </c>
       <c r="C149" t="s">
-        <v>362</v>
+        <v>480</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3839,7 +3839,7 @@
         <v>150</v>
       </c>
       <c r="C150" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3850,7 +3850,7 @@
         <v>151</v>
       </c>
       <c r="C151" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3861,7 +3861,7 @@
         <v>152</v>
       </c>
       <c r="C152" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3872,7 +3872,7 @@
         <v>153</v>
       </c>
       <c r="C153" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3883,7 +3883,7 @@
         <v>154</v>
       </c>
       <c r="C154" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3894,7 +3894,7 @@
         <v>155</v>
       </c>
       <c r="C155" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3905,7 +3905,7 @@
         <v>156</v>
       </c>
       <c r="C156" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3927,7 +3927,7 @@
         <v>158</v>
       </c>
       <c r="C158" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3938,7 +3938,7 @@
         <v>159</v>
       </c>
       <c r="C159" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3949,7 +3949,7 @@
         <v>160</v>
       </c>
       <c r="C160" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3960,7 +3960,7 @@
         <v>161</v>
       </c>
       <c r="C161" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3971,7 +3971,7 @@
         <v>162</v>
       </c>
       <c r="C162" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3982,7 +3982,7 @@
         <v>163</v>
       </c>
       <c r="C163" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3993,7 +3993,7 @@
         <v>164</v>
       </c>
       <c r="C164" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4004,7 +4004,7 @@
         <v>165</v>
       </c>
       <c r="C165" t="s">
-        <v>360</v>
+        <v>493</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -4015,7 +4015,7 @@
         <v>166</v>
       </c>
       <c r="C166" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4026,7 +4026,7 @@
         <v>167</v>
       </c>
       <c r="C167" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4037,7 +4037,7 @@
         <v>168</v>
       </c>
       <c r="C168" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4048,7 +4048,7 @@
         <v>169</v>
       </c>
       <c r="C169" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4059,7 +4059,7 @@
         <v>170</v>
       </c>
       <c r="C170" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4070,7 +4070,7 @@
         <v>171</v>
       </c>
       <c r="C171" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4081,7 +4081,7 @@
         <v>172</v>
       </c>
       <c r="C172" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4092,7 +4092,7 @@
         <v>173</v>
       </c>
       <c r="C173" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4103,7 +4103,7 @@
         <v>174</v>
       </c>
       <c r="C174" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4114,7 +4114,7 @@
         <v>175</v>
       </c>
       <c r="C175" t="s">
-        <v>504</v>
+        <v>446</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4125,7 +4125,7 @@
         <v>176</v>
       </c>
       <c r="C176" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4136,7 +4136,7 @@
         <v>177</v>
       </c>
       <c r="C177" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4147,7 +4147,7 @@
         <v>178</v>
       </c>
       <c r="C178" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4169,7 +4169,7 @@
         <v>180</v>
       </c>
       <c r="C180" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4180,7 +4180,7 @@
         <v>181</v>
       </c>
       <c r="C181" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4191,7 +4191,7 @@
         <v>182</v>
       </c>
       <c r="C182" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4202,7 +4202,7 @@
         <v>183</v>
       </c>
       <c r="C183" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4213,7 +4213,7 @@
         <v>184</v>
       </c>
       <c r="C184" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4224,7 +4224,7 @@
         <v>185</v>
       </c>
       <c r="C185" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4235,7 +4235,7 @@
         <v>186</v>
       </c>
       <c r="C186" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4246,7 +4246,7 @@
         <v>187</v>
       </c>
       <c r="C187" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4257,7 +4257,7 @@
         <v>188</v>
       </c>
       <c r="C188" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4268,7 +4268,7 @@
         <v>189</v>
       </c>
       <c r="C189" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4279,7 +4279,7 @@
         <v>190</v>
       </c>
       <c r="C190" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4301,7 +4301,7 @@
         <v>192</v>
       </c>
       <c r="C192" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4312,7 +4312,7 @@
         <v>193</v>
       </c>
       <c r="C193" t="s">
-        <v>519</v>
+        <v>449</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4323,7 +4323,7 @@
         <v>194</v>
       </c>
       <c r="C194" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4334,7 +4334,7 @@
         <v>195</v>
       </c>
       <c r="C195" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4345,7 +4345,7 @@
         <v>196</v>
       </c>
       <c r="C196" t="s">
-        <v>456</v>
+        <v>519</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4356,7 +4356,7 @@
         <v>197</v>
       </c>
       <c r="C197" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4367,7 +4367,7 @@
         <v>198</v>
       </c>
       <c r="C198" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4378,7 +4378,7 @@
         <v>199</v>
       </c>
       <c r="C199" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4389,7 +4389,7 @@
         <v>200</v>
       </c>
       <c r="C200" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4400,7 +4400,7 @@
         <v>201</v>
       </c>
       <c r="C201" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4411,7 +4411,7 @@
         <v>202</v>
       </c>
       <c r="C202" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4422,7 +4422,7 @@
         <v>203</v>
       </c>
       <c r="C203" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4433,7 +4433,7 @@
         <v>204</v>
       </c>
       <c r="C204" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4444,7 +4444,7 @@
         <v>205</v>
       </c>
       <c r="C205" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4455,7 +4455,7 @@
         <v>206</v>
       </c>
       <c r="C206" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4466,7 +4466,7 @@
         <v>207</v>
       </c>
       <c r="C207" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4477,7 +4477,7 @@
         <v>208</v>
       </c>
       <c r="C208" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4488,7 +4488,7 @@
         <v>209</v>
       </c>
       <c r="C209" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4499,7 +4499,7 @@
         <v>210</v>
       </c>
       <c r="C210" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4510,7 +4510,7 @@
         <v>211</v>
       </c>
       <c r="C211" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4521,7 +4521,7 @@
         <v>212</v>
       </c>
       <c r="C212" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4532,7 +4532,7 @@
         <v>213</v>
       </c>
       <c r="C213" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4543,7 +4543,7 @@
         <v>214</v>
       </c>
       <c r="C214" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4554,7 +4554,7 @@
         <v>215</v>
       </c>
       <c r="C215" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4565,7 +4565,7 @@
         <v>216</v>
       </c>
       <c r="C216" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4576,7 +4576,7 @@
         <v>217</v>
       </c>
       <c r="C217" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4587,7 +4587,7 @@
         <v>218</v>
       </c>
       <c r="C218" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4598,7 +4598,7 @@
         <v>219</v>
       </c>
       <c r="C219" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4609,7 +4609,7 @@
         <v>220</v>
       </c>
       <c r="C220" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4620,7 +4620,7 @@
         <v>221</v>
       </c>
       <c r="C221" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4631,7 +4631,7 @@
         <v>222</v>
       </c>
       <c r="C222" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4642,7 +4642,7 @@
         <v>223</v>
       </c>
       <c r="C223" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4653,7 +4653,7 @@
         <v>224</v>
       </c>
       <c r="C224" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4664,7 +4664,7 @@
         <v>225</v>
       </c>
       <c r="C225" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4675,7 +4675,7 @@
         <v>226</v>
       </c>
       <c r="C226" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4686,7 +4686,7 @@
         <v>227</v>
       </c>
       <c r="C227" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4697,7 +4697,7 @@
         <v>228</v>
       </c>
       <c r="C228" t="s">
-        <v>352</v>
+        <v>549</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4730,7 +4730,7 @@
         <v>231</v>
       </c>
       <c r="C231" t="s">
-        <v>550</v>
+        <v>397</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4741,7 +4741,7 @@
         <v>232</v>
       </c>
       <c r="C232" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4752,7 +4752,7 @@
         <v>233</v>
       </c>
       <c r="C233" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4763,7 +4763,7 @@
         <v>234</v>
       </c>
       <c r="C234" t="s">
-        <v>435</v>
+        <v>552</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4862,7 +4862,7 @@
         <v>243</v>
       </c>
       <c r="C243" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4917,7 +4917,7 @@
         <v>248</v>
       </c>
       <c r="C248" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4928,7 +4928,7 @@
         <v>249</v>
       </c>
       <c r="C249" t="s">
-        <v>564</v>
+        <v>533</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4939,7 +4939,7 @@
         <v>250</v>
       </c>
       <c r="C250" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4961,7 +4961,7 @@
         <v>252</v>
       </c>
       <c r="C252" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4983,7 +4983,7 @@
         <v>254</v>
       </c>
       <c r="C254" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4994,7 +4994,7 @@
         <v>255</v>
       </c>
       <c r="C255" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5005,7 +5005,7 @@
         <v>256</v>
       </c>
       <c r="C256" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -5016,7 +5016,7 @@
         <v>257</v>
       </c>
       <c r="C257" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5027,7 +5027,7 @@
         <v>258</v>
       </c>
       <c r="C258" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5060,7 +5060,7 @@
         <v>261</v>
       </c>
       <c r="C261" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5082,7 +5082,7 @@
         <v>263</v>
       </c>
       <c r="C263" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5093,7 +5093,7 @@
         <v>264</v>
       </c>
       <c r="C264" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5115,7 +5115,7 @@
         <v>266</v>
       </c>
       <c r="C266" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5148,7 +5148,7 @@
         <v>269</v>
       </c>
       <c r="C269" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5170,7 +5170,7 @@
         <v>271</v>
       </c>
       <c r="C271" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5181,7 +5181,7 @@
         <v>272</v>
       </c>
       <c r="C272" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5192,7 +5192,7 @@
         <v>273</v>
       </c>
       <c r="C273" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5203,7 +5203,7 @@
         <v>274</v>
       </c>
       <c r="C274" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5214,7 +5214,7 @@
         <v>275</v>
       </c>
       <c r="C275" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5225,7 +5225,7 @@
         <v>276</v>
       </c>
       <c r="C276" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5247,7 +5247,7 @@
         <v>278</v>
       </c>
       <c r="C278" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5258,7 +5258,7 @@
         <v>279</v>
       </c>
       <c r="C279" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5269,7 +5269,7 @@
         <v>280</v>
       </c>
       <c r="C280" t="s">
-        <v>582</v>
+        <v>476</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5280,7 +5280,7 @@
         <v>281</v>
       </c>
       <c r="C281" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5291,7 +5291,7 @@
         <v>282</v>
       </c>
       <c r="C282" t="s">
-        <v>582</v>
+        <v>476</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5313,7 +5313,7 @@
         <v>284</v>
       </c>
       <c r="C284" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5335,7 +5335,7 @@
         <v>286</v>
       </c>
       <c r="C286" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5357,7 +5357,7 @@
         <v>288</v>
       </c>
       <c r="C288" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5368,7 +5368,7 @@
         <v>289</v>
       </c>
       <c r="C289" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5379,7 +5379,7 @@
         <v>290</v>
       </c>
       <c r="C290" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5401,7 +5401,7 @@
         <v>292</v>
       </c>
       <c r="C292" t="s">
-        <v>585</v>
+        <v>496</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5423,7 +5423,7 @@
         <v>294</v>
       </c>
       <c r="C294" t="s">
-        <v>488</v>
+        <v>582</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5434,7 +5434,7 @@
         <v>295</v>
       </c>
       <c r="C295" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5467,7 +5467,7 @@
         <v>298</v>
       </c>
       <c r="C298" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5478,7 +5478,7 @@
         <v>299</v>
       </c>
       <c r="C299" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5489,7 +5489,7 @@
         <v>300</v>
       </c>
       <c r="C300" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5500,7 +5500,7 @@
         <v>301</v>
       </c>
       <c r="C301" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5522,7 +5522,7 @@
         <v>303</v>
       </c>
       <c r="C303" t="s">
-        <v>589</v>
+        <v>452</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5533,7 +5533,7 @@
         <v>304</v>
       </c>
       <c r="C304" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5566,7 +5566,7 @@
         <v>307</v>
       </c>
       <c r="C307" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5577,7 +5577,7 @@
         <v>308</v>
       </c>
       <c r="C308" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5588,7 +5588,7 @@
         <v>309</v>
       </c>
       <c r="C309" t="s">
-        <v>346</v>
+        <v>555</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5599,7 +5599,7 @@
         <v>310</v>
       </c>
       <c r="C310" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5610,7 +5610,7 @@
         <v>311</v>
       </c>
       <c r="C311" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5621,7 +5621,7 @@
         <v>312</v>
       </c>
       <c r="C312" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5632,7 +5632,7 @@
         <v>313</v>
       </c>
       <c r="C313" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5643,7 +5643,7 @@
         <v>314</v>
       </c>
       <c r="C314" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5654,7 +5654,7 @@
         <v>315</v>
       </c>
       <c r="C315" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5665,7 +5665,7 @@
         <v>316</v>
       </c>
       <c r="C316" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5676,7 +5676,7 @@
         <v>317</v>
       </c>
       <c r="C317" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5698,7 +5698,7 @@
         <v>319</v>
       </c>
       <c r="C319" t="s">
-        <v>491</v>
+        <v>594</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5709,7 +5709,7 @@
         <v>320</v>
       </c>
       <c r="C320" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5720,7 +5720,7 @@
         <v>321</v>
       </c>
       <c r="C321" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5731,7 +5731,7 @@
         <v>322</v>
       </c>
       <c r="C322" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5742,7 +5742,7 @@
         <v>323</v>
       </c>
       <c r="C323" t="s">
-        <v>548</v>
+        <v>481</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5753,7 +5753,7 @@
         <v>324</v>
       </c>
       <c r="C324" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -5764,7 +5764,7 @@
         <v>325</v>
       </c>
       <c r="C325" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5775,7 +5775,7 @@
         <v>326</v>
       </c>
       <c r="C326" t="s">
-        <v>433</v>
+        <v>599</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5786,7 +5786,7 @@
         <v>327</v>
       </c>
       <c r="C327" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5808,7 +5808,7 @@
         <v>329</v>
       </c>
       <c r="C329" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5830,7 +5830,7 @@
         <v>331</v>
       </c>
       <c r="C331" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5841,7 +5841,7 @@
         <v>332</v>
       </c>
       <c r="C332" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -5852,7 +5852,7 @@
         <v>333</v>
       </c>
       <c r="C333" t="s">
-        <v>585</v>
+        <v>484</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -5863,7 +5863,7 @@
         <v>334</v>
       </c>
       <c r="C334" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -5885,7 +5885,7 @@
         <v>336</v>
       </c>
       <c r="C336" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -5896,7 +5896,7 @@
         <v>337</v>
       </c>
       <c r="C337" t="s">
-        <v>564</v>
+        <v>533</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -5907,7 +5907,7 @@
         <v>338</v>
       </c>
       <c r="C338" t="s">
-        <v>485</v>
+        <v>604</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -5940,7 +5940,7 @@
         <v>341</v>
       </c>
       <c r="C341" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
